--- a/요청포맷.xlsx
+++ b/요청포맷.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwkim\DOCUME~1\GitHub\METAX_~2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwkim\Documents\GitHub\metaX_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>모델(네트워크)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,14 +34,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>step2.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step3.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -50,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모델이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main( ) 내에 argparse.ArgumentParser 인스턴스로 정의</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,18 +66,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>소요시간이 오래 걸리는 것은</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,83 +118,182 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>해당 객체를 처리하는 메서드에 직접 작성하여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i-STREAM workflow 로 porting 하고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리로 요청 보내서 응답 받아오도록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta-train</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta-test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/path/to/accuracy.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 학습 &amp; 학습 진행 상황 기록(loss graph, accuracy)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 셋을 이용한 모델 평가, Hyperparameter에 따른 loss, acurracy 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>step2에서 전처리한 데이터에 대해 Predict한 결과 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelAgnosticMetaLearning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[optimization_based_maml]step01_preview.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[optimization_based_maml]step02_preprocess.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[optimization_based_maml]step03_meta-train.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[optimization_based_maml]step04_meta-test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[optimization_based_maml]step05_predict.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benchmark_dataset : 벤치마크 데이터셋 명, 다음 중 하나 : ['omniglot', 'mini_imagenet']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>epochs : 학습시 전체 데이터셋 반복 횟수
+network_cls : 메타러닝으로 학습될 모델 기본값 : step2에서 저장된 값
+meta_learning_rate : outer loop learning rate
+meta_batch_size : N of tasks in one meta-batch
+num_steps_ml : N of inner steps
+lr_inner_ml : Inner loop의 learning rate. type : float
+num_steps_validation : validation set에 대한  fine tuning 스텝수
+save_after_epochs : 모델 저장 주기(1인 경우 매 epoch마다 저장)
+report_validation_frequency : validation set에 대한 evaluation 결과 프린트 주기
+log_train_images_after_iteration : 분류된 이미지를 텐서보드에 기록하는 주기(1인 경우 매 meta batch 마다 기록)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Omniglot Dataset 
+* 데이터셋 통계치(분할 셋별 클래스의 수 및 인스턴스 수)
+Validiation set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/stat.txt)
+* 클래스별 인스턴스(샘플)의 경로
+Test set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/path_sample_test.json)
+Train set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/path_sample_train.json)
+Validiation set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/path_sample_val.json)
+2. MiniImageNet Dataset에 대해서는 위의 경로에서 omniglot -&gt; mini_imagenet 으로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 생성파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Omniglot Dataset
+* N-way K-shot Dataset 화면출력을 위한 json(3세부 요청파일)
+nwaykshot_omniglot (-&gt; /dataset/data/ui_output/maml/step2/omniglot/nwaykshot_omniglot.json)
+2. MiniImageNet Dataset에 대해서는 위의 경로에서 omniglot -&gt; mini_imagenet 으로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 아래 파일은 화면 출력에 사용하지 않음
+* Step1에서 데이터베이스파일이 저장되지 않은 경우 Step2에서 처리해 저장
+omniglot.pkl (tf.data.Dataset) (-&gt; /dataset/data/ui_output/maml/step2/omniglot/omniglot.pkl)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n : 샘플링된 클래스의 개수
+k : 클래스당 데이터 샘플(인스턴스)의 개수
+meta_batch_size : 한 번의 gradient update를 위해 학습하는 N-way K-shot Task의 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 미리보기, 기초통계치 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preprocessing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# 아래 세 가지 파일은 화면 출력에 사용하지 않음
+* 클래스당 인스턴스(샘플)의 수(분할된 셋마다 저장)
+Test set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/n_of_samples_per_class_test.json)
+Train set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/n_of_samples_per_class_train.json)
+Validiation set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/n_of_samples_per_class_val.json)
+* 클래스별 폴더 경로
+Test set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/path_class_test.json)
+Train set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/path_class_train.json)
+Validiation set (-&gt; /dataset/data/ui_output/maml/step1/omniglot/path_class_val.json)
+* Step2에 넘겨줄 database file 
+omniglot.pkl (tf.data.Dataset) (-&gt; /dataset/data/ui_output/maml/step1/omniglot/omniglot.pkl)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치마크데이터셋으로부터 N-way K-shot Task 샘플링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># 참고 : 다음단계에 이전단계 인자를 전달하기 위하여 argument 저장파일을 아래 경로에 저장
+/dataset/data/ui_output/maml/args/step#.ini</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-10초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/path/to/loss_plot.png, epochs.log</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 객체를 처리하는 메서드에 직접 작성하여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>i-STREAM workflow 로 porting 하고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리로 요청 보내서 응답 받아오도록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta-train</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta-test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prediction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step4.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step5.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/path/to/accuracy.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 미리보기, 기초통계치 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-way K-shot Setting / Image Preprocessing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 학습 &amp; 학습 진행 상황 기록(loss graph, accuracy)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test 셋을 이용한 모델 평가, Hyperparameter에 따른 loss, acurracy 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step2에서 전처리한 데이터에 대해 Predict한 결과 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>preview</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>step1.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-way_K-shot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_map (-&gt; /path/to/data_map.json)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -293,12 +372,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -319,9 +401,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B1:I6" totalsRowShown="0">
-  <autoFilter ref="B1:I6"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B1:J6" totalsRowShown="0">
+  <autoFilter ref="B1:J6"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="모델(네트워크)"/>
     <tableColumn id="2" name="단계"/>
     <tableColumn id="3" name="메인함수 정의파일"/>
@@ -330,6 +412,7 @@
     <tableColumn id="6" name="UI설계화면 예시"/>
     <tableColumn id="7" name="소요시간"/>
     <tableColumn id="8" name="기능"/>
+    <tableColumn id="10" name="기타 생성파일"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,225 +715,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J11"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="46.75" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="5" max="5" width="75.25" customWidth="1"/>
     <col min="6" max="6" width="45.5" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.625" customWidth="1"/>
+    <col min="9" max="10" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/요청포맷.xlsx
+++ b/요청포맷.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
